--- a/Data/electrosamokaty/allgid scooters 2021.xlsx
+++ b/Data/electrosamokaty/allgid scooters 2021.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shulya403\Shulya403_works\all_gid_2\Data\electrosamokaty\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="375" windowWidth="27555" windowHeight="12045"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="177">
   <si>
     <t>Vendor</t>
   </si>
@@ -39,9 +44,6 @@
     <t>AKB, Ah</t>
   </si>
   <si>
-    <t>middle power (150-290)</t>
-  </si>
-  <si>
     <t>ARTWAY</t>
   </si>
   <si>
@@ -75,9 +77,6 @@
     <t>DEXP Kid</t>
   </si>
   <si>
-    <t>low power (less 150)</t>
-  </si>
-  <si>
     <t>DEXP Speed</t>
   </si>
   <si>
@@ -366,81 +365,15 @@
     <t>Xiaomi/MI</t>
   </si>
   <si>
-    <t>Цена, рубл.</t>
-  </si>
-  <si>
-    <t>Вес, кг.</t>
-  </si>
-  <si>
-    <t>Диаметр колеса, дюйм</t>
-  </si>
-  <si>
-    <t>Мощность, Ватт</t>
-  </si>
-  <si>
-    <t>Батарея</t>
-  </si>
-  <si>
     <t>Range, km</t>
   </si>
   <si>
-    <t>Пробег, км</t>
-  </si>
-  <si>
-    <t>Маломощный</t>
-  </si>
-  <si>
-    <t>Средней мощности</t>
-  </si>
-  <si>
-    <t>Мощный</t>
-  </si>
-  <si>
-    <t>Дешевый</t>
-  </si>
-  <si>
-    <t>Средней стоимости</t>
-  </si>
-  <si>
-    <t>Дорогой</t>
-  </si>
-  <si>
-    <t>high power (300+</t>
-  </si>
-  <si>
-    <t>Adult light/middle</t>
-  </si>
-  <si>
-    <t>Children/Teenager</t>
-  </si>
-  <si>
     <t>Heavy</t>
   </si>
   <si>
-    <t>Дети/Подростки</t>
-  </si>
-  <si>
-    <t>Легкий/Средний</t>
-  </si>
-  <si>
-    <t>Тяжелый</t>
-  </si>
-  <si>
-    <t>Low price</t>
-  </si>
-  <si>
-    <t>Middle price</t>
-  </si>
-  <si>
-    <t>High price</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>H1 2021</t>
-  </si>
-  <si>
     <t>DEXP ESC1</t>
   </si>
   <si>
@@ -595,12 +528,36 @@
   </si>
   <si>
     <t>Mi Electric Scooter White M365 (FBC4003GL)</t>
+  </si>
+  <si>
+    <t>Low_price</t>
+  </si>
+  <si>
+    <t>Middle_price</t>
+  </si>
+  <si>
+    <t>High_price</t>
+  </si>
+  <si>
+    <t>Children_Teenager</t>
+  </si>
+  <si>
+    <t>Adult_light_middle</t>
+  </si>
+  <si>
+    <t>low_power_less_150</t>
+  </si>
+  <si>
+    <t>middle_power_150-290</t>
+  </si>
+  <si>
+    <t>high_power_300plus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,6 +599,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -690,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,7 +685,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -934,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S140"/>
+  <dimension ref="A1:S139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -974,107 +934,107 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="M1" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="N1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="O1" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="P1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q1" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="R1" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="S1" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" t="s">
-        <v>124</v>
-      </c>
-      <c r="S2" t="s">
-        <v>125</v>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>285</v>
+      </c>
+      <c r="D2">
+        <v>12590</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>285</v>
+        <v>665</v>
       </c>
       <c r="D3">
-        <v>12590</v>
+        <v>14290</v>
       </c>
       <c r="E3">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1083,10 +1043,10 @@
         <v>250</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1118,31 +1078,31 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4">
-        <v>665</v>
+        <v>300</v>
       </c>
       <c r="D4">
-        <v>14290</v>
+        <v>12400</v>
       </c>
       <c r="E4">
         <v>7.2</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G4">
         <v>250</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1174,46 +1134,46 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>1025</v>
       </c>
       <c r="D5">
-        <v>12400</v>
+        <v>25490</v>
       </c>
       <c r="E5">
-        <v>7.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F5">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H5">
-        <v>4.4000000000000004</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1222,39 +1182,39 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1025</v>
+        <v>680</v>
       </c>
       <c r="D6">
-        <v>25490</v>
+        <v>30660</v>
       </c>
       <c r="E6">
-        <v>18.399999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>350</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1286,19 +1246,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7">
-        <v>680</v>
+        <v>2972</v>
       </c>
       <c r="D7">
-        <v>30660</v>
+        <v>19312</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>15.3</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -1307,16 +1267,16 @@
         <v>350</v>
       </c>
       <c r="H7">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1342,19 +1302,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>2972</v>
+        <v>821</v>
       </c>
       <c r="D8">
-        <v>19312</v>
+        <v>19990</v>
       </c>
       <c r="E8">
-        <v>15.3</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -1366,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1398,158 +1358,158 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>821</v>
+        <v>1809</v>
       </c>
       <c r="D9">
-        <v>19990</v>
+        <v>8999</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>350</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1809</v>
+        <v>1328</v>
       </c>
       <c r="D10">
-        <v>8999</v>
+        <v>23999</v>
       </c>
       <c r="E10">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C11">
-        <v>1328</v>
+        <v>2444</v>
       </c>
       <c r="D11">
-        <v>23999</v>
+        <v>15999</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G11">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1558,27 +1518,27 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C12">
-        <v>2444</v>
+        <v>4254</v>
       </c>
       <c r="D12">
-        <v>15999</v>
+        <v>16999</v>
       </c>
       <c r="E12">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="F12">
         <v>6.5</v>
@@ -1587,10 +1547,10 @@
         <v>250</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1602,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1622,37 +1582,37 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C13">
-        <v>4254</v>
+        <v>1523</v>
       </c>
       <c r="D13">
-        <v>16999</v>
+        <v>20999</v>
       </c>
       <c r="E13">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="G13">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1670,39 +1630,39 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>1523</v>
+        <v>574</v>
       </c>
       <c r="D14">
-        <v>20999</v>
+        <v>34990</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>13.95</v>
       </c>
       <c r="F14">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1726,27 +1686,27 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>574</v>
+        <v>2361</v>
       </c>
       <c r="D15">
-        <v>34990</v>
+        <v>39990</v>
       </c>
       <c r="E15">
-        <v>13.95</v>
+        <v>17.5</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -1755,10 +1715,10 @@
         <v>250</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1790,46 +1750,46 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>2361</v>
+        <v>2166</v>
       </c>
       <c r="D16">
-        <v>39990</v>
+        <v>15990</v>
       </c>
       <c r="E16">
-        <v>17.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G16">
         <v>250</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1846,46 +1806,46 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
       <c r="C17">
-        <v>2166</v>
+        <v>677</v>
       </c>
       <c r="D17">
-        <v>15990</v>
+        <v>23990</v>
       </c>
       <c r="E17">
-        <v>9.3000000000000007</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>6.5</v>
+        <v>8.66</v>
       </c>
       <c r="G17">
         <v>250</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1902,31 +1862,31 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="D18">
-        <v>23990</v>
+        <v>27989</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="F18">
-        <v>8.66</v>
+        <v>8.5</v>
       </c>
       <c r="G18">
         <v>250</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1958,105 +1918,105 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D19">
-        <v>27989</v>
+        <v>60515</v>
       </c>
       <c r="E19">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="F19">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>18.2</v>
       </c>
       <c r="I19">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
       <c r="C20">
-        <v>619</v>
+        <v>4186</v>
       </c>
       <c r="D20">
-        <v>60515</v>
+        <v>37900</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="H20">
-        <v>18.2</v>
+        <v>12.8</v>
       </c>
       <c r="I20">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2070,40 +2030,40 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>4186</v>
+        <v>500</v>
       </c>
       <c r="D21">
-        <v>37900</v>
+        <v>43900</v>
       </c>
       <c r="E21">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="H21">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="I21">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2126,46 +2086,46 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>500</v>
+        <v>5151</v>
       </c>
       <c r="D22">
-        <v>43900</v>
+        <v>17490</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G22">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2174,54 +2134,54 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C23">
-        <v>5151</v>
+        <v>217</v>
       </c>
       <c r="D23">
-        <v>17490</v>
+        <v>49272</v>
       </c>
       <c r="E23">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2230,24 +2190,24 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C24">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D24">
-        <v>49272</v>
+        <v>59990</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -2256,13 +2216,13 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H24">
         <v>12</v>
       </c>
       <c r="I24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2294,46 +2254,46 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C25">
-        <v>222</v>
+        <v>4877</v>
       </c>
       <c r="D25">
-        <v>59990</v>
+        <v>14990</v>
       </c>
       <c r="E25">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2350,31 +2310,31 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C26">
-        <v>4877</v>
+        <v>1133</v>
       </c>
       <c r="D26">
-        <v>14990</v>
+        <v>15990</v>
       </c>
       <c r="E26">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2398,30 +2358,30 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C27">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D27">
-        <v>15990</v>
+        <v>17990</v>
       </c>
       <c r="E27">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>180</v>
@@ -2430,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2462,31 +2422,31 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C28">
-        <v>1132</v>
+        <v>786</v>
       </c>
       <c r="D28">
-        <v>17990</v>
+        <v>19990</v>
       </c>
       <c r="E28">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2518,37 +2478,37 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C29">
-        <v>786</v>
+        <v>674</v>
       </c>
       <c r="D29">
-        <v>19990</v>
+        <v>20990</v>
       </c>
       <c r="E29">
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>250</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2574,19 +2534,19 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C30">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="D30">
-        <v>20990</v>
+        <v>21990</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -2598,7 +2558,7 @@
         <v>5.2</v>
       </c>
       <c r="I30">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2630,37 +2590,37 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C31">
-        <v>659</v>
+        <v>5632</v>
       </c>
       <c r="D31">
-        <v>21990</v>
+        <v>12699</v>
       </c>
       <c r="E31">
-        <v>9.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G31">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="H31">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2686,28 +2646,28 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C32">
-        <v>5632</v>
+        <v>2028</v>
       </c>
       <c r="D32">
-        <v>12699</v>
+        <v>18731</v>
       </c>
       <c r="E32">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="F32">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32">
         <v>18</v>
@@ -2722,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2742,37 +2702,37 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C33">
-        <v>2028</v>
+        <v>1696</v>
       </c>
       <c r="D33">
-        <v>18731</v>
+        <v>29990</v>
       </c>
       <c r="E33">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G33">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H33">
         <v>6</v>
       </c>
       <c r="I33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2790,39 +2750,39 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C34">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="D34">
-        <v>29990</v>
+        <v>33990</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>15.3</v>
       </c>
       <c r="F34">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I34">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2854,19 +2814,19 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C35">
-        <v>1701</v>
+        <v>796</v>
       </c>
       <c r="D35">
-        <v>33990</v>
+        <v>31990</v>
       </c>
       <c r="E35">
-        <v>15.3</v>
+        <v>18</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -2875,10 +2835,10 @@
         <v>350</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2910,28 +2870,28 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C36">
-        <v>796</v>
+        <v>642</v>
       </c>
       <c r="D36">
-        <v>31990</v>
+        <v>21800</v>
       </c>
       <c r="E36">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I36">
         <v>25</v>
@@ -2958,39 +2918,39 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C37">
-        <v>642</v>
+        <v>179</v>
       </c>
       <c r="D37">
-        <v>21800</v>
+        <v>35980</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G37">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
       <c r="I37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3005,113 +2965,113 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C38">
-        <v>179</v>
+        <v>896</v>
       </c>
       <c r="D38">
-        <v>35980</v>
+        <v>7490</v>
       </c>
       <c r="E38">
-        <v>27</v>
+        <v>3.5</v>
       </c>
       <c r="F38">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C39">
-        <v>896</v>
+        <v>565</v>
       </c>
       <c r="D39">
-        <v>7490</v>
+        <v>13990</v>
       </c>
       <c r="E39">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3134,96 +3094,96 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>565</v>
+        <v>260</v>
       </c>
       <c r="D40">
-        <v>13990</v>
+        <v>44990</v>
       </c>
       <c r="E40">
-        <v>5.5</v>
+        <v>18.5</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="H40">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>260</v>
+        <v>1916</v>
       </c>
       <c r="D41">
-        <v>44990</v>
+        <v>26990</v>
       </c>
       <c r="E41">
-        <v>18.5</v>
+        <v>12.13</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="G41">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="I41">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3238,54 +3198,54 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42">
-        <v>1916</v>
+        <v>123</v>
       </c>
       <c r="D42">
-        <v>26990</v>
+        <v>12990</v>
       </c>
       <c r="E42">
-        <v>12.13</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H42">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3302,40 +3262,40 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>123</v>
+        <v>2716</v>
       </c>
       <c r="D43">
-        <v>12990</v>
+        <v>8990</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="F43">
+        <v>5.5</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
         <v>6</v>
       </c>
-      <c r="G43">
-        <v>150</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>8</v>
-      </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3347,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3358,31 +3318,31 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="C44">
-        <v>2716</v>
+        <v>1284</v>
       </c>
       <c r="D44">
-        <v>8990</v>
+        <v>9990</v>
       </c>
       <c r="E44">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="F44">
         <v>5.5</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H44">
         <v>9</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3414,31 +3374,31 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
       <c r="C45">
-        <v>1284</v>
+        <v>650</v>
       </c>
       <c r="D45">
         <v>9990</v>
       </c>
       <c r="E45">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="F45">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>80</v>
       </c>
       <c r="H45">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3470,75 +3430,75 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="D46">
-        <v>9990</v>
+        <v>32990</v>
       </c>
       <c r="E46">
-        <v>3.6</v>
+        <v>15.3</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="H46">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="I46">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="D47">
-        <v>32990</v>
+        <v>39990</v>
       </c>
       <c r="E47">
-        <v>15.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -3547,10 +3507,10 @@
         <v>350</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="I47">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3582,31 +3542,31 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C48">
-        <v>1250</v>
+        <v>612</v>
       </c>
       <c r="D48">
-        <v>39990</v>
+        <v>31990</v>
       </c>
       <c r="E48">
-        <v>16.399999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="F48">
         <v>10</v>
       </c>
       <c r="G48">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="H48">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="I48">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3638,13 +3598,13 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
       </c>
       <c r="C49">
-        <v>612</v>
+        <v>232</v>
       </c>
       <c r="D49">
         <v>31990</v>
@@ -3694,13 +3654,13 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C50">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="D50">
         <v>31990</v>
@@ -3750,37 +3710,37 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C51">
-        <v>148</v>
+        <v>1045</v>
       </c>
       <c r="D51">
-        <v>31990</v>
+        <v>18605</v>
       </c>
       <c r="E51">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H51">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3798,39 +3758,39 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C52">
-        <v>1045</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>18605</v>
+        <v>17495</v>
       </c>
       <c r="E52">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G52">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3842,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3854,54 +3814,54 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="D53">
-        <v>17495</v>
+        <v>27560</v>
       </c>
       <c r="E53">
-        <v>9.9</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G53">
-        <v>630</v>
+        <v>350</v>
       </c>
       <c r="H53">
-        <v>4.4000000000000004</v>
+        <v>7.8</v>
       </c>
       <c r="I53">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3918,28 +3878,28 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="D54">
-        <v>27560</v>
+        <v>24490</v>
       </c>
       <c r="E54">
-        <v>13</v>
+        <v>17.8</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G54">
         <v>350</v>
       </c>
       <c r="H54">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="I54">
         <v>20</v>
@@ -3974,46 +3934,46 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
         <v>42</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
       <c r="C55">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="D55">
-        <v>24490</v>
+        <v>10490</v>
       </c>
       <c r="E55">
-        <v>17.8</v>
+        <v>4.7</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -4022,21 +3982,21 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C56">
-        <v>700</v>
+        <v>751</v>
       </c>
       <c r="D56">
         <v>10490</v>
@@ -4086,31 +4046,31 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C57">
-        <v>751</v>
+        <v>1756</v>
       </c>
       <c r="D57">
-        <v>10490</v>
+        <v>15000</v>
       </c>
       <c r="E57">
-        <v>4.7</v>
+        <v>9.4</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="G57">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4142,31 +4102,31 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
         <v>49</v>
       </c>
       <c r="C58">
-        <v>1756</v>
+        <v>400</v>
       </c>
       <c r="D58">
-        <v>15000</v>
+        <v>16990</v>
       </c>
       <c r="E58">
-        <v>9.4</v>
+        <v>8.08</v>
       </c>
       <c r="F58">
         <v>6.5</v>
       </c>
       <c r="G58">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
       <c r="I58">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -4190,54 +4150,54 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>400</v>
+        <v>990</v>
       </c>
       <c r="D59">
-        <v>16990</v>
+        <v>21990</v>
       </c>
       <c r="E59">
-        <v>8.08</v>
+        <v>13.3</v>
       </c>
       <c r="F59">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G59">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="I59">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -4246,21 +4206,21 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>990</v>
+        <v>890</v>
       </c>
       <c r="D60">
         <v>21990</v>
@@ -4310,31 +4270,31 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C61">
-        <v>890</v>
+        <v>1040</v>
       </c>
       <c r="D61">
-        <v>21990</v>
+        <v>32990</v>
       </c>
       <c r="E61">
-        <v>13.3</v>
+        <v>15.2</v>
       </c>
       <c r="F61">
         <v>8</v>
       </c>
       <c r="G61">
-        <v>270</v>
+        <v>700</v>
       </c>
       <c r="H61">
         <v>7.5</v>
       </c>
       <c r="I61">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4358,54 +4318,54 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C62">
-        <v>1040</v>
+        <v>1398</v>
       </c>
       <c r="D62">
-        <v>32990</v>
+        <v>16499</v>
       </c>
       <c r="E62">
-        <v>15.2</v>
+        <v>8.4</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G62">
-        <v>700</v>
+        <v>320</v>
       </c>
       <c r="H62">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4422,16 +4382,16 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
       </c>
       <c r="C63">
-        <v>1398</v>
+        <v>700</v>
       </c>
       <c r="D63">
-        <v>16499</v>
+        <v>17135</v>
       </c>
       <c r="E63">
         <v>8.4</v>
@@ -4478,13 +4438,13 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
         <v>52</v>
       </c>
       <c r="C64">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D64">
         <v>17135</v>
@@ -4534,13 +4494,13 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C65">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D65">
         <v>17135</v>
@@ -4590,16 +4550,16 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C66">
-        <v>700</v>
+        <v>249</v>
       </c>
       <c r="D66">
-        <v>17135</v>
+        <v>13990</v>
       </c>
       <c r="E66">
         <v>8.4</v>
@@ -4646,13 +4606,13 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="D67">
         <v>13990</v>
@@ -4702,46 +4662,46 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C68">
-        <v>200</v>
+        <v>1079</v>
       </c>
       <c r="D68">
-        <v>13990</v>
+        <v>20999</v>
       </c>
       <c r="E68">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G68">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="I68">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4758,31 +4718,31 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C69">
-        <v>1079</v>
+        <v>368</v>
       </c>
       <c r="D69">
-        <v>20999</v>
+        <v>33062</v>
       </c>
       <c r="E69">
+        <v>20.5</v>
+      </c>
+      <c r="F69">
         <v>10</v>
       </c>
-      <c r="F69">
-        <v>8</v>
-      </c>
       <c r="G69">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="H69">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="I69">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4797,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -4814,13 +4774,13 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>368</v>
+        <v>1389</v>
       </c>
       <c r="D70">
         <v>33062</v>
@@ -4870,13 +4830,13 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
       <c r="C71">
-        <v>1389</v>
+        <v>367</v>
       </c>
       <c r="D71">
         <v>33062</v>
@@ -4926,31 +4886,31 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72">
-        <v>367</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>33062</v>
+        <v>38490</v>
       </c>
       <c r="E72">
-        <v>20.5</v>
+        <v>20.46</v>
       </c>
       <c r="F72">
         <v>10</v>
       </c>
       <c r="G72">
-        <v>350</v>
+        <v>930</v>
       </c>
       <c r="H72">
         <v>7.5</v>
       </c>
       <c r="I72">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4982,25 +4942,25 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>480</v>
       </c>
       <c r="D73">
-        <v>38490</v>
+        <v>43320</v>
       </c>
       <c r="E73">
-        <v>20.46</v>
+        <v>21.4</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G73">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="H73">
         <v>7.5</v>
@@ -5012,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5038,49 +4998,49 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C74">
-        <v>480</v>
+        <v>884</v>
       </c>
       <c r="D74">
-        <v>43320</v>
+        <v>34990</v>
       </c>
       <c r="E74">
-        <v>21.4</v>
+        <v>19.8</v>
       </c>
       <c r="F74">
         <v>12</v>
       </c>
       <c r="G74">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="H74">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I74">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -5094,19 +5054,19 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C75">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="D75">
-        <v>34990</v>
+        <v>31990</v>
       </c>
       <c r="E75">
-        <v>19.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F75">
         <v>12</v>
@@ -5115,7 +5075,7 @@
         <v>480</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I75">
         <v>25</v>
@@ -5150,13 +5110,13 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
         <v>66</v>
       </c>
       <c r="C76">
-        <v>550</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <v>31990</v>
@@ -5206,13 +5166,13 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C77">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="D77">
         <v>31990</v>
@@ -5262,19 +5222,19 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C78">
-        <v>183</v>
+        <v>898</v>
       </c>
       <c r="D78">
-        <v>31990</v>
+        <v>40280</v>
       </c>
       <c r="E78">
-        <v>18.600000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="F78">
         <v>12</v>
@@ -5283,19 +5243,19 @@
         <v>480</v>
       </c>
       <c r="H78">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5318,40 +5278,40 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C79">
-        <v>898</v>
+        <v>574</v>
       </c>
       <c r="D79">
-        <v>40280</v>
+        <v>19370</v>
       </c>
       <c r="E79">
-        <v>18.8</v>
+        <v>12.2</v>
       </c>
       <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>380</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
         <v>12</v>
       </c>
-      <c r="G79">
-        <v>480</v>
-      </c>
-      <c r="H79">
-        <v>6</v>
-      </c>
-      <c r="I79">
-        <v>30</v>
-      </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5374,37 +5334,37 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C80">
-        <v>574</v>
+        <v>246</v>
       </c>
       <c r="D80">
-        <v>19370</v>
+        <v>37990</v>
       </c>
       <c r="E80">
-        <v>12.2</v>
+        <v>18.8</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G80">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="I80">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5430,46 +5390,46 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C81">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D81">
-        <v>37990</v>
+        <v>10990</v>
       </c>
       <c r="E81">
-        <v>18.8</v>
+        <v>4.7</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="H81">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -5478,21 +5438,21 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C82">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="D82">
         <v>10990</v>
@@ -5542,31 +5502,31 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C83">
-        <v>443</v>
+        <v>1632</v>
       </c>
       <c r="D83">
-        <v>10990</v>
+        <v>10999</v>
       </c>
       <c r="E83">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G83">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I83">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -5587,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -5601,84 +5561,84 @@
         <v>78</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C84">
-        <v>1632</v>
+        <v>8886</v>
       </c>
       <c r="D84">
-        <v>10999</v>
+        <v>31000</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F84">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="G84">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>12.8</v>
       </c>
       <c r="I84">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84">
         <v>0</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C85">
-        <v>8886</v>
+        <v>2392</v>
       </c>
       <c r="D85">
-        <v>31000</v>
+        <v>23500</v>
       </c>
       <c r="E85">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G85">
         <v>350</v>
       </c>
       <c r="H85">
-        <v>12.8</v>
+        <v>8</v>
       </c>
       <c r="I85">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5710,31 +5670,31 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86">
-        <v>2392</v>
+        <v>528</v>
       </c>
       <c r="D86">
-        <v>23500</v>
+        <v>29599</v>
       </c>
       <c r="E86">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G86">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="H86">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I86">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5749,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -5766,37 +5726,37 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C87">
-        <v>528</v>
+        <v>4223</v>
       </c>
       <c r="D87">
-        <v>29599</v>
+        <v>17900</v>
       </c>
       <c r="E87">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G87">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H87">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I87">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -5805,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -5822,19 +5782,19 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
         <v>80</v>
       </c>
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
       <c r="C88">
-        <v>4223</v>
+        <v>1820</v>
       </c>
       <c r="D88">
-        <v>17900</v>
+        <v>18500</v>
       </c>
       <c r="E88">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="F88">
         <v>8</v>
@@ -5878,19 +5838,19 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89">
-        <v>1820</v>
+        <v>1142</v>
       </c>
       <c r="D89">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="E89">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>8</v>
@@ -5905,10 +5865,10 @@
         <v>25</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -5934,31 +5894,31 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C90">
-        <v>1142</v>
+        <v>1151</v>
       </c>
       <c r="D90">
-        <v>21500</v>
+        <v>34900</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>16.515377932232841</v>
       </c>
       <c r="F90">
         <v>8</v>
       </c>
       <c r="G90">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I90">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5990,25 +5950,25 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C91">
-        <v>1151</v>
+        <v>575</v>
       </c>
       <c r="D91">
-        <v>34900</v>
+        <v>24890</v>
       </c>
       <c r="E91">
-        <v>16.515377932232841</v>
+        <v>14</v>
       </c>
       <c r="F91">
         <v>8</v>
       </c>
       <c r="G91">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="H91">
         <v>13</v>
@@ -6046,19 +6006,19 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
         <v>88</v>
       </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
       <c r="C92">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="D92">
-        <v>24890</v>
+        <v>21890</v>
       </c>
       <c r="E92">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F92">
         <v>8</v>
@@ -6067,10 +6027,10 @@
         <v>350</v>
       </c>
       <c r="H92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I92">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -6102,37 +6062,37 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C93">
-        <v>549</v>
+        <v>100</v>
       </c>
       <c r="D93">
-        <v>21890</v>
+        <v>19490</v>
       </c>
       <c r="E93">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <v>8</v>
       </c>
       <c r="G93">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="H93">
         <v>10</v>
       </c>
       <c r="I93">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -6150,45 +6110,45 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C94">
-        <v>100</v>
+        <v>1101</v>
       </c>
       <c r="D94">
-        <v>19490</v>
+        <v>31238</v>
       </c>
       <c r="E94">
-        <v>11</v>
+        <v>15.034950071326676</v>
       </c>
       <c r="F94">
         <v>8</v>
       </c>
       <c r="G94">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H94">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="I94">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -6214,31 +6174,31 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95">
-        <v>1101</v>
+        <v>469</v>
       </c>
       <c r="D95">
-        <v>31238</v>
+        <v>38990</v>
       </c>
       <c r="E95">
-        <v>15.034950071326676</v>
+        <v>17.627565982404693</v>
       </c>
       <c r="F95">
         <v>8</v>
       </c>
       <c r="G95">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H95">
-        <v>6.6</v>
+        <v>10.4</v>
       </c>
       <c r="I95">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -6262,39 +6222,39 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
         <v>92</v>
       </c>
-      <c r="B96" t="s">
-        <v>97</v>
-      </c>
       <c r="C96">
-        <v>469</v>
+        <v>3959</v>
       </c>
       <c r="D96">
-        <v>38990</v>
+        <v>22838</v>
       </c>
       <c r="E96">
-        <v>17.627565982404693</v>
+        <v>12.3</v>
       </c>
       <c r="F96">
         <v>8</v>
       </c>
       <c r="G96">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H96">
-        <v>10.4</v>
+        <v>7.8</v>
       </c>
       <c r="I96">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -6318,39 +6278,39 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97">
-        <v>3959</v>
+        <v>3049</v>
       </c>
       <c r="D97">
-        <v>22838</v>
+        <v>29900</v>
       </c>
       <c r="E97">
-        <v>12.3</v>
+        <v>13.5</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G97">
         <v>250</v>
       </c>
       <c r="H97">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="I97">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6382,37 +6342,37 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C98">
-        <v>3049</v>
+        <v>560</v>
       </c>
       <c r="D98">
-        <v>29900</v>
+        <v>16990</v>
       </c>
       <c r="E98">
-        <v>13.5</v>
+        <v>10.15</v>
       </c>
       <c r="F98">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G98">
         <v>250</v>
       </c>
       <c r="H98">
-        <v>9.6</v>
+        <v>5.2</v>
       </c>
       <c r="I98">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -6438,37 +6398,37 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C99">
-        <v>560</v>
+        <v>2200</v>
       </c>
       <c r="D99">
-        <v>16990</v>
+        <v>36081</v>
       </c>
       <c r="E99">
-        <v>10.15</v>
+        <v>17.5</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G99">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H99">
-        <v>5.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I99">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -6486,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -6497,34 +6457,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C100">
-        <v>2200</v>
+        <v>113</v>
       </c>
       <c r="D100">
-        <v>36081</v>
+        <v>17389</v>
       </c>
       <c r="E100">
-        <v>17.5</v>
+        <v>11.3</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="G100">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H100">
-        <v>10.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="I100">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -6542,33 +6502,33 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C101">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D101">
-        <v>17389</v>
+        <v>27398</v>
       </c>
       <c r="E101">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="F101">
         <v>7.8</v>
       </c>
       <c r="G101">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H101">
         <v>5.2</v>
@@ -6577,10 +6537,10 @@
         <v>25</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -6598,54 +6558,54 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C102">
-        <v>107</v>
+        <v>3662</v>
       </c>
       <c r="D102">
-        <v>27398</v>
+        <v>17088</v>
       </c>
       <c r="E102">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="F102">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="G102">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H102">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="I102">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -6654,36 +6614,36 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C103">
-        <v>3662</v>
+        <v>4914</v>
       </c>
       <c r="D103">
-        <v>17088</v>
+        <v>16128</v>
       </c>
       <c r="E103">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="F103">
         <v>7</v>
       </c>
       <c r="G103">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="H103">
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I103">
         <v>10</v>
@@ -6718,13 +6678,13 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C104">
-        <v>4914</v>
+        <v>4252</v>
       </c>
       <c r="D104">
         <v>16128</v>
@@ -6774,46 +6734,46 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C105">
-        <v>4252</v>
+        <v>3200</v>
       </c>
       <c r="D105">
-        <v>16128</v>
+        <v>27990</v>
       </c>
       <c r="E105">
-        <v>7.9</v>
+        <v>10.5</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="G105">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H105">
-        <v>2.5499999999999998</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -6830,31 +6790,31 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C106">
-        <v>3200</v>
+        <v>7979</v>
       </c>
       <c r="D106">
-        <v>27990</v>
+        <v>23990</v>
       </c>
       <c r="E106">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="F106">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="G106">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="I106">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -6878,27 +6838,27 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C107">
-        <v>7979</v>
+        <v>810</v>
       </c>
       <c r="D107">
-        <v>23990</v>
+        <v>29990</v>
       </c>
       <c r="E107">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F107">
         <v>9</v>
@@ -6907,10 +6867,10 @@
         <v>300</v>
       </c>
       <c r="H107">
-        <v>5.2</v>
+        <v>5.96</v>
       </c>
       <c r="I107">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -6942,19 +6902,19 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C108">
-        <v>810</v>
+        <v>4785</v>
       </c>
       <c r="D108">
-        <v>29990</v>
+        <v>39990</v>
       </c>
       <c r="E108">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="F108">
         <v>9</v>
@@ -6963,7 +6923,7 @@
         <v>300</v>
       </c>
       <c r="H108">
-        <v>5.96</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I108">
         <v>25</v>
@@ -6998,19 +6958,19 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C109">
-        <v>4785</v>
+        <v>3591</v>
       </c>
       <c r="D109">
-        <v>39990</v>
+        <v>38689</v>
       </c>
       <c r="E109">
-        <v>14.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F109">
         <v>9</v>
@@ -7019,10 +6979,10 @@
         <v>300</v>
       </c>
       <c r="H109">
-        <v>5.0999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I109">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -7054,40 +7014,40 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C110">
-        <v>3591</v>
+        <v>21</v>
       </c>
       <c r="D110">
-        <v>38689</v>
+        <v>56639</v>
       </c>
       <c r="E110">
-        <v>16.399999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="F110">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G110">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H110">
         <v>10.199999999999999</v>
       </c>
       <c r="I110">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -7110,19 +7070,19 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C111">
-        <v>21</v>
+        <v>9742</v>
       </c>
       <c r="D111">
-        <v>56639</v>
+        <v>36081</v>
       </c>
       <c r="E111">
-        <v>15.8</v>
+        <v>17.5</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -7140,10 +7100,10 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -7166,40 +7126,40 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C112">
-        <v>9742</v>
+        <v>33827</v>
       </c>
       <c r="D112">
-        <v>36081</v>
+        <v>44598</v>
       </c>
       <c r="E112">
-        <v>17.5</v>
+        <v>19.2</v>
       </c>
       <c r="F112">
         <v>10</v>
       </c>
       <c r="G112">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="H112">
-        <v>10.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="I112">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -7222,31 +7182,31 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
         <v>100</v>
       </c>
-      <c r="B113" t="s">
-        <v>173</v>
-      </c>
       <c r="C113">
-        <v>33827</v>
+        <v>12552</v>
       </c>
       <c r="D113">
-        <v>44598</v>
+        <v>49900</v>
       </c>
       <c r="E113">
-        <v>19.2</v>
+        <v>21</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G113">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="H113">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="I113">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -7261,10 +7221,10 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -7284,22 +7244,22 @@
         <v>102</v>
       </c>
       <c r="C114">
-        <v>12552</v>
+        <v>800</v>
       </c>
       <c r="D114">
-        <v>49900</v>
+        <v>32500</v>
       </c>
       <c r="E114">
-        <v>21</v>
+        <v>11.7</v>
       </c>
       <c r="F114">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H114">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="I114">
         <v>25</v>
@@ -7308,28 +7268,28 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -7337,28 +7297,28 @@
         <v>103</v>
       </c>
       <c r="B115" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C115">
-        <v>800</v>
+        <v>271</v>
       </c>
       <c r="D115">
-        <v>32500</v>
+        <v>29900</v>
       </c>
       <c r="E115">
-        <v>11.7</v>
+        <v>20.8</v>
       </c>
       <c r="F115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G115">
         <v>250</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I115">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -7373,10 +7333,10 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -7390,31 +7350,31 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C116">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="D116">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="E116">
-        <v>20.8</v>
+        <v>7.16</v>
       </c>
       <c r="F116">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="G116">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H116">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="I116">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -7426,13 +7386,13 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116">
         <v>0</v>
       </c>
       <c r="P116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -7446,31 +7406,31 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>103</v>
+      </c>
+      <c r="B117" t="s">
         <v>105</v>
       </c>
-      <c r="B117" t="s">
-        <v>108</v>
-      </c>
       <c r="C117">
-        <v>25</v>
+        <v>1120</v>
       </c>
       <c r="D117">
-        <v>27900</v>
+        <v>21900</v>
       </c>
       <c r="E117">
-        <v>7.16</v>
+        <v>11.8</v>
       </c>
       <c r="F117">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="G117">
         <v>150</v>
       </c>
       <c r="H117">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="I117">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -7482,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -7502,55 +7462,55 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B118" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C118">
-        <v>1120</v>
+        <v>631</v>
       </c>
       <c r="D118">
-        <v>21900</v>
+        <v>18900</v>
       </c>
       <c r="E118">
-        <v>11.8</v>
+        <v>9.9</v>
       </c>
       <c r="F118">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="G118">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I118">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118">
         <v>0</v>
       </c>
       <c r="N118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -7558,40 +7518,40 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B119" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C119">
-        <v>631</v>
+        <v>6597</v>
       </c>
       <c r="D119">
-        <v>18900</v>
+        <v>9900</v>
       </c>
       <c r="E119">
-        <v>9.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F119">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="G119">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H119">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="I119">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -7603,10 +7563,10 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -7620,40 +7580,40 @@
         <v>111</v>
       </c>
       <c r="C120">
-        <v>6597</v>
+        <v>1462</v>
       </c>
       <c r="D120">
-        <v>9900</v>
+        <v>14999</v>
       </c>
       <c r="E120">
-        <v>8.1999999999999993</v>
+        <v>12.7</v>
       </c>
       <c r="F120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G120">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H120">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="I120">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -7673,34 +7633,34 @@
         <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C121">
-        <v>1462</v>
+        <v>557</v>
       </c>
       <c r="D121">
-        <v>14999</v>
+        <v>24830</v>
       </c>
       <c r="E121">
-        <v>12.7</v>
+        <v>11.5</v>
       </c>
       <c r="F121">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="G121">
         <v>250</v>
       </c>
       <c r="H121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -7726,13 +7686,13 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C122">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="D122">
         <v>24830</v>
@@ -7782,13 +7742,13 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B123" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C123">
-        <v>525</v>
+        <v>1172</v>
       </c>
       <c r="D123">
         <v>24830</v>
@@ -7838,105 +7798,105 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C124">
-        <v>1172</v>
+        <v>147</v>
       </c>
       <c r="D124">
-        <v>24830</v>
+        <v>49052</v>
       </c>
       <c r="E124">
-        <v>11.5</v>
+        <v>20.6</v>
       </c>
       <c r="F124">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="G124">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I124">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
         <v>0</v>
       </c>
       <c r="R124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C125">
-        <v>147</v>
+        <v>2072</v>
       </c>
       <c r="D125">
-        <v>49052</v>
+        <v>27335</v>
       </c>
       <c r="E125">
-        <v>20.6</v>
+        <v>14.7</v>
       </c>
       <c r="F125">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="G125">
         <v>350</v>
       </c>
       <c r="H125">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="I125">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -7950,31 +7910,31 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C126">
-        <v>2072</v>
+        <v>129</v>
       </c>
       <c r="D126">
-        <v>27335</v>
+        <v>24360</v>
       </c>
       <c r="E126">
-        <v>14.7</v>
+        <v>12</v>
       </c>
       <c r="F126">
         <v>8.5</v>
       </c>
       <c r="G126">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H126">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="I126">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -7998,21 +7958,21 @@
         <v>0</v>
       </c>
       <c r="R126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C127">
-        <v>129</v>
+        <v>596</v>
       </c>
       <c r="D127">
         <v>24360</v>
@@ -8062,13 +8022,13 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C128">
-        <v>596</v>
+        <v>100</v>
       </c>
       <c r="D128">
         <v>24360</v>
@@ -8118,13 +8078,13 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B129" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C129">
-        <v>100</v>
+        <v>1982</v>
       </c>
       <c r="D129">
         <v>24360</v>
@@ -8174,46 +8134,46 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B130" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C130">
-        <v>1982</v>
+        <v>615</v>
       </c>
       <c r="D130">
-        <v>24360</v>
+        <v>12545</v>
       </c>
       <c r="E130">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F130">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="G130">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H130">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="I130">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -8230,13 +8190,13 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C131">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="D131">
         <v>12545</v>
@@ -8286,46 +8246,46 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C132">
-        <v>642</v>
+        <v>753</v>
       </c>
       <c r="D132">
-        <v>12545</v>
+        <v>53490</v>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F132">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G132">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H132">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="I132">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -8334,48 +8294,48 @@
         <v>0</v>
       </c>
       <c r="R132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C133">
-        <v>753</v>
+        <v>257</v>
       </c>
       <c r="D133">
-        <v>53490</v>
+        <v>22990</v>
       </c>
       <c r="E133">
-        <v>17.399999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G133">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H133">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="I133">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K133">
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -8390,21 +8350,21 @@
         <v>0</v>
       </c>
       <c r="R133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C134">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="D134">
         <v>22990</v>
@@ -8454,37 +8414,37 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C135">
-        <v>106</v>
+        <v>3856</v>
       </c>
       <c r="D135">
-        <v>22990</v>
+        <v>19820</v>
       </c>
       <c r="E135">
-        <v>10.4</v>
+        <v>12.5</v>
       </c>
       <c r="F135">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="G135">
         <v>250</v>
       </c>
       <c r="H135">
-        <v>5.2</v>
+        <v>7.65</v>
       </c>
       <c r="I135">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -8510,16 +8470,16 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C136">
-        <v>3856</v>
+        <v>46</v>
       </c>
       <c r="D136">
-        <v>19820</v>
+        <v>28990</v>
       </c>
       <c r="E136">
         <v>12.5</v>
@@ -8528,19 +8488,19 @@
         <v>8.5</v>
       </c>
       <c r="G136">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H136">
-        <v>7.65</v>
+        <v>7.8</v>
       </c>
       <c r="I136">
         <v>30</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -8558,27 +8518,27 @@
         <v>0</v>
       </c>
       <c r="R136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C137">
-        <v>46</v>
+        <v>5570</v>
       </c>
       <c r="D137">
-        <v>28990</v>
+        <v>23560</v>
       </c>
       <c r="E137">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="F137">
         <v>8.5</v>
@@ -8587,10 +8547,10 @@
         <v>500</v>
       </c>
       <c r="H137">
-        <v>7.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I137">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -8622,31 +8582,31 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C138">
-        <v>5570</v>
+        <v>1487</v>
       </c>
       <c r="D138">
-        <v>23560</v>
+        <v>33414</v>
       </c>
       <c r="E138">
-        <v>12</v>
+        <v>14.2</v>
       </c>
       <c r="F138">
         <v>8.5</v>
       </c>
       <c r="G138">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H138">
-        <v>5.0999999999999996</v>
+        <v>12.8</v>
       </c>
       <c r="I138">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -8678,31 +8638,31 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C139">
-        <v>1487</v>
+        <v>45</v>
       </c>
       <c r="D139">
-        <v>33414</v>
+        <v>28990</v>
       </c>
       <c r="E139">
-        <v>14.2</v>
+        <v>12.5</v>
       </c>
       <c r="F139">
         <v>8.5</v>
       </c>
       <c r="G139">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H139">
-        <v>12.8</v>
+        <v>7.8</v>
       </c>
       <c r="I139">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -8729,62 +8689,6 @@
         <v>0</v>
       </c>
       <c r="S139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>115</v>
-      </c>
-      <c r="B140" t="s">
-        <v>192</v>
-      </c>
-      <c r="C140">
-        <v>45</v>
-      </c>
-      <c r="D140">
-        <v>28990</v>
-      </c>
-      <c r="E140">
-        <v>12.5</v>
-      </c>
-      <c r="F140">
-        <v>8.5</v>
-      </c>
-      <c r="G140">
-        <v>500</v>
-      </c>
-      <c r="H140">
-        <v>7.8</v>
-      </c>
-      <c r="I140">
-        <v>30</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <v>1</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>0</v>
-      </c>
-      <c r="S140">
         <v>1</v>
       </c>
     </row>
